--- a/artfynd/A 22230-2022.xlsx
+++ b/artfynd/A 22230-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY27"/>
+  <dimension ref="A1:AY32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3893,6 +3893,526 @@
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>112551671</v>
+      </c>
+      <c r="B28" t="n">
+        <v>78713</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Väster Naturreservatet Kullarna, Vrm</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>386308</v>
+      </c>
+      <c r="R28" t="n">
+        <v>6713631</v>
+      </c>
+      <c r="S28" t="n">
+        <v>10</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Dalby</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>På asp.</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Anders Boström</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Anders Boström</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>112551677</v>
+      </c>
+      <c r="B29" t="n">
+        <v>77650</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Väster Naturreservatet Kullarna, Vrm</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>386047</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6713439</v>
+      </c>
+      <c r="S29" t="n">
+        <v>10</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Dalby</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Anders Boström</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Anders Boström</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>112551702</v>
+      </c>
+      <c r="B30" t="n">
+        <v>78713</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Väster Naturreservatet Kullarna, Vrm</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>385983</v>
+      </c>
+      <c r="R30" t="n">
+        <v>6713397</v>
+      </c>
+      <c r="S30" t="n">
+        <v>10</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Dalby</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>På asp.</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Anders Boström</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Anders Boström</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>112551681</v>
+      </c>
+      <c r="B31" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Väster Naturreservatet Kullarna, Vrm</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>386295</v>
+      </c>
+      <c r="R31" t="n">
+        <v>6713615</v>
+      </c>
+      <c r="S31" t="n">
+        <v>10</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Dalby</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Anders Boström</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Anders Boström</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>112551679</v>
+      </c>
+      <c r="B32" t="n">
+        <v>77650</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Väster Naturreservatet Kullarna, Vrm</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>386245</v>
+      </c>
+      <c r="R32" t="n">
+        <v>6713552</v>
+      </c>
+      <c r="S32" t="n">
+        <v>10</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Dalby</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Anders Boström</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Anders Boström</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
